--- a/806209426/localisation/excel/designer_l_german.xlsx
+++ b/806209426/localisation/excel/designer_l_german.xlsx
@@ -28,37 +28,37 @@
     <t xml:space="preserve"> DESIGNER_LOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RGesperrt§!</t>
+    <t xml:space="preserve">§R§R Gesperrt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_ADD:</t>
   </si>
   <si>
-    <t xml:space="preserve">Zum Hinzufügen §Gklicken§!</t>
+    <t xml:space="preserve">Zum Hinzufügen §G§G klicken §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_CHANGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Zum Ändern §Gklicken§!</t>
+    <t xml:space="preserve">Zum Ändern §G§G klicken §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_CHANGE_REMOVE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Zum Entfernen §GUmschalt+Klick§!</t>
+    <t xml:space="preserve">Zum Entfernen §G§G Umschalt+Klick §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_DUPLICATE_TO_MODIFY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RZum Modifizieren Vorlage duplizieren§!</t>
+    <t xml:space="preserve">§R§R Zum Modifizieren Vorlage duplizieren §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_BLOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dieser Linienbataillonplatz ist §Rgesperrt§!</t>
+    <t xml:space="preserve">Dieser Linienbataillonplatz ist §R§R gesperrt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_BLOCKED_BY_TECH:</t>
@@ -70,13 +70,13 @@
     <t xml:space="preserve"> DESIGNER_BLOCKED_TECH_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n £trigger_no §H$NAME$ ($CATEGORY$)§!</t>
+    <t xml:space="preserve">\n £trigger_no §H§H $NAME$ ($CATEGORY$) §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_BLOCKED_BY_NOT_HANDLED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HZur Freischaltung muss der Spieler spezielle Bedingungen erfüllen.§!</t>
+    <t xml:space="preserve">§H§H Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_UNLOCK:</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve"> DESIGNER_COMBATWIDTH_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Gefechtsbreite zeigt an, wie viel Platz diese Division im Kampf einnimmt. Wenn ein Kampf beispielsweise eine Gesamtbreite von §Y80§! hat, können Sie §Y4§! Divisionen mit einer Breite von §Y20§! unterbringen.</t>
+    <t xml:space="preserve">Die Gefechtsbreite zeigt an, wie viel Platz diese Division im Kampf einnimmt. Wenn ein Kampf beispielsweise eine Gesamtbreite von §Y§Y 80 §!§!  hat, können Sie §Y§Y 4 §!§!  Divisionen mit einer Breite von §Y§Y 20 §!§!  unterbringen.</t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_MANPOWER:</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve"> DESIGNER_DUPLICATE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Duplizieren, um beim Speichern dieser Vorlage §Ggratis§! eine neue Vorlage zu erstellen. Die ursprüngliche Vorlage bleibt unverändert und kann weiter verwendet werden, während Sie die neue Vorlage einsetzen.</t>
+    <t xml:space="preserve">Duplizieren, um beim Speichern dieser Vorlage §G§G gratis §!§!  eine neue Vorlage zu erstellen. Die ursprüngliche Vorlage bleibt unverändert und kann weiter verwendet werden, während Sie die neue Vorlage einsetzen.</t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_DUPLICATE_OF_NAME:</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve"> DESIGNER_NO_CHANGES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TKeine Änderungen zum Speichern§!</t>
+    <t xml:space="preserve">§T§T Keine Änderungen zum Speichern §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_ARMY_SAVE:</t>
@@ -397,19 +397,19 @@
     <t xml:space="preserve"> EQUIPMENT_TYPE_NOW_FORBIDDEN:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nAusrüstungstypen sind jetzt §Rverboten§!:\n</t>
+    <t xml:space="preserve">\nAusrüstungstypen sind jetzt §R§R verboten §!§! :\n</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_TYPE_NOW_ALLOWED:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nAusrüstungstypen sind jetzt §Gerlaubt§!:\n</t>
+    <t xml:space="preserve">\nAusrüstungstypen sind jetzt §G§G erlaubt §!§! :\n</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_TYPE_ALL_FORBIDDEN:</t>
   </si>
   <si>
-    <t xml:space="preserve">- $EQUIPMENT_TYPE|H$ (§Rbenötigt§!)\n</t>
+    <t xml:space="preserve">- $EQUIPMENT_TYPE|H$ (§R§R benötigt §!§! )\n</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_TYPE_HIGHLIGHTED:</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve"> EQUIPMENT_ARCHETYPE_DESELECTED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDer Vorlage fehlt Ausrüstung:§!\n</t>
+    <t xml:space="preserve">§R§R Der Vorlage fehlt Ausrüstung: §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> ALLOWED_EQUIPMENT_CHANGED_FOR_TYPE:</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve"> NO_INTERSECTED_EQUIPMENT_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Diese Modifikation führt dazu, dass bestehende Divisionen mit dieser Vorlage §RAUFGELÖST§! werden. Es gibt keine Ausrüstungsüberschneidung zwischen der modifizierten und der ursprünglichen Vorlage.</t>
+    <t xml:space="preserve">Diese Modifikation führt dazu, dass bestehende Divisionen mit dieser Vorlage §R§R AUFGELÖST §!§!  werden. Es gibt keine Ausrüstungsüberschneidung zwischen der modifizierten und der ursprünglichen Vorlage.</t>
   </si>
   <si>
     <t xml:space="preserve"> REGIMENT_WINDOW_DESC:</t>
@@ -463,13 +463,13 @@
     <t xml:space="preserve"> DIVISION_PRODUCTION_RESOURCE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die für die Produktion der Ausrüstung für eine Division dieser Vorlage verwendeten §HRessourcen§!.</t>
+    <t xml:space="preserve">Die für die Produktion der Ausrüstung für eine Division dieser Vorlage verwendeten §H§H Ressourcen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> DIVISION_PRODUCTION_COST_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §HIndustriekapazität§!-Kosten für die Produktion der Ausrüstung für eine Division dieser Vorlage.</t>
+    <t xml:space="preserve">Die §H§H Industriekapazität §!§! -Kosten für die Produktion der Ausrüstung für eine Division dieser Vorlage.</t>
   </si>
   <si>
     <t xml:space="preserve"> DIVISION_PRODUCTION_COST_SINGLE_VAL:</t>
@@ -493,13 +493,13 @@
     <t xml:space="preserve"> DESIGNER_REFIT_COST_FROM_ORIGINAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Kosten für den Umbau eines Schiffs vom §Hursprünglichen Muster§! zu diesem Muster.</t>
+    <t xml:space="preserve">Die Kosten für den Umbau eines Schiffs vom §H§H ursprünglichen Muster §!§!  zu diesem Muster.</t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Kosten für den Umbau von Ausrüstung vom §Hursprünglichen Muster§! zu diesem Muster.</t>
+    <t xml:space="preserve">Die Kosten für den Umbau von Ausrüstung vom §H§H ursprünglichen Muster §!§!  zu diesem Muster.</t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_REFIT_COST_FROM_PARENT:</t>
@@ -571,7 +571,7 @@
     <t xml:space="preserve"> DIVISION_MODIFICATION_NEED_NOT_FILLED:</t>
   </si>
   <si>
-    <t xml:space="preserve">\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )</t>
+    <t xml:space="preserve">\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen zu füllen ( §R§R $STOCK_AMOUNT|H0^$ verfügbar §!§!  )</t>
   </si>
   <si>
     <t xml:space="preserve"> DIVISION_MODIFICATION_NEED_FILLED:</t>
@@ -589,7 +589,7 @@
     <t xml:space="preserve"> DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON:</t>
   </si>
   <si>
-    <t xml:space="preserve">\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen und Garnisonen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )</t>
+    <t xml:space="preserve">\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen und Garnisonen zu füllen ( §R§R $STOCK_AMOUNT|H0^$ verfügbar §!§!  )</t>
   </si>
   <si>
     <t xml:space="preserve"> DIVISION_MODIFICATION_NEED_FILLED_GARRISON:</t>
@@ -607,7 +607,7 @@
     <t xml:space="preserve"> SELECTED_SUBUNIT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G(Derzeit ausgewählt)§!</t>
+    <t xml:space="preserve">§G§G (Derzeit ausgewählt) §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_TEMPLATE_NAME_TIP:</t>
@@ -619,31 +619,31 @@
     <t xml:space="preserve"> DESIGNER_EMPTY_REGIMENT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RSie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage erstellen zu können§!</t>
+    <t xml:space="preserve">§R§R Sie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage erstellen zu können §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_EMPTY_NAME:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDie Divisionsvorlage darf keinen leeren Namen haben§!</t>
+    <t xml:space="preserve">§R§R Die Divisionsvorlage darf keinen leeren Namen haben §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_TEMPLATE_NAME_EXISTS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs besteht bereits eine andere Divisionsvorlage mit demselben Namen§!</t>
+    <t xml:space="preserve">§R§R Es besteht bereits eine andere Divisionsvorlage mit demselben Namen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_SUPPORT_COLUMN_TITLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronteinheiten stehen und diese unterstützen.\n\nSie können nur jeweils einen Typ auswählen. Unterstützungskompanien wirken sich nicht auf die §YHöchstgeschwindigkeit§! der Division aus (mit Ausnahme von Geländeboni) und erhöhen nicht ihre §YGefechtsbreite§!</t>
+    <t xml:space="preserve">Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronteinheiten stehen und diese unterstützen.\n\nSie können nur jeweils einen Typ auswählen. Unterstützungskompanien wirken sich nicht auf die §Y§Y Höchstgeschwindigkeit §!§!  der Division aus (mit Ausnahme von Geländeboni) und erhöhen nicht ihre §Y§Y Gefechtsbreite §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_MAIN_COLUMN_TITLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Linienbataillone sind Ihre Fronttruppen.\n\nJede Spalte besteht aus einem Regiment eines bestimmten Basistyps, wie §YPanzer§!, §YInfanterie§! oder §YMotorisierte Truppen§!. Der oberste Typ bestimmt, womit Sie diese Regimentsspalte noch bestücken können. Je mehr Linienbataillone Sie besitzen, desto größer ist Ihre §YGefechtsbreite§! und desto weniger dieser Divisionen können Sie in das gleiche Gefecht schicken.</t>
+    <t xml:space="preserve">Linienbataillone sind Ihre Fronttruppen.\n\nJede Spalte besteht aus einem Regiment eines bestimmten Basistyps, wie §Y§Y Panzer §!§! , §Y§Y Infanterie §!§!  oder §Y§Y Motorisierte Truppen §!§! . Der oberste Typ bestimmt, womit Sie diese Regimentsspalte noch bestücken können. Je mehr Linienbataillone Sie besitzen, desto größer ist Ihre §Y§Y Gefechtsbreite §!§!  und desto weniger dieser Divisionen können Sie in das gleiche Gefecht schicken.</t>
   </si>
   <si>
     <t xml:space="preserve"> REINFORCE_WITH_RESEARCHED_EQUIPMENT:</t>
@@ -661,7 +661,7 @@
     <t xml:space="preserve"> REINFORCE_WITH_EQUIPMENT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktivieren, um durch diese Ausrüstung zu verstärken. \n§GUmschalt-Klick§!, um sämtliche Ausrüstung dieses Typs zu verbieten.\n</t>
+    <t xml:space="preserve">Aktivieren, um durch diese Ausrüstung zu verstärken. \n§G§G Umschalt-Klick §!§! , um sämtliche Ausrüstung dieses Typs zu verbieten.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> ALLOW_FOREIGN_EQUIPMENT:</t>
@@ -709,7 +709,7 @@
     <t xml:space="preserve"> DIVISION_NAMES_GROUP_LIST_HEADER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBeispielnamen:§!</t>
+    <t xml:space="preserve">§H§H Beispielnamen: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DIVISION_NAMES_GROUP_LIST_ENTRY:</t>
@@ -727,13 +727,13 @@
     <t xml:space="preserve"> DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n\n§HErsatzname:§!\n  $NAME$</t>
+    <t xml:space="preserve">\n\n§H§H Ersatzname: §!§! \n  $NAME$</t>
   </si>
   <si>
     <t xml:space="preserve"> DIVISION_NAMES_GROUP_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HGruppe mit historischen Divisionsnamen.§!\nAlle Divisionen dieser Vorlage verwenden die Namen aus diesem Pool. Wenn Sie die Gruppe jetzt ändern, werden alle Divisionen dieser aktuellen Vorlage umbenannt – mit Ausnahme derjenigen, die Sie selbst benannt haben.</t>
+    <t xml:space="preserve">§H§H Gruppe mit historischen Divisionsnamen. §!§! \nAlle Divisionen dieser Vorlage verwenden die Namen aus diesem Pool. Wenn Sie die Gruppe jetzt ändern, werden alle Divisionen dieser aktuellen Vorlage umbenannt – mit Ausnahme derjenigen, die Sie selbst benannt haben.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_TITLE:</t>
@@ -793,7 +793,7 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SAVE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dieses Muster als §Hneues Muster§! zu speichern.</t>
+    <t xml:space="preserve">Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dieses Muster als §H§H neues Muster §!§!  zu speichern.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SAVE_DESC_NO_CHANGE_TO_PARENT:</t>
@@ -811,19 +811,19 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_UPDATE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §Hdiesem Muster§! zu speichern.</t>
+    <t xml:space="preserve">Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §H§H diesem Muster §!§!  zu speichern.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Weil das ursprüngliche Muster §Hverwendet wird§!, wird ein neues Muster erstellt. Das ursprüngliche Muster wird §Haußer Betrieb gesetzt§!.</t>
+    <t xml:space="preserve">Weil das ursprüngliche Muster §H§H verwendet wird §!§! , wird ein neues Muster erstellt. Das ursprüngliche Muster wird §H§H außer Betrieb gesetzt §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Weil die §HRolle§! sich verändert hat, wird ein neues Muster erstellt.</t>
+    <t xml:space="preserve">Weil die §H§H Rolle §!§!  sich verändert hat, wird ein neues Muster erstellt.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_UPDATE_COSMETIC:</t>
@@ -835,7 +835,7 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Speichern Sie die Änderungen an §Hdiesem Muster§!.</t>
+    <t xml:space="preserve">Speichern Sie die Änderungen an §H§H diesem Muster §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC_NO_COST:</t>
@@ -847,31 +847,31 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_EMPTY_NAME:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RSie müssen dem Muster einen Namen geben.§!</t>
+    <t xml:space="preserve">§R§R Sie müssen dem Muster einen Namen geben. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_NOT_ENOUGH_XP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas Muster ist zu teuer.§!</t>
+    <t xml:space="preserve">§R§R Das Muster ist zu teuer. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_NO_XP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKeine Erfahrungspunkte zum Ausgeben.§!</t>
+    <t xml:space="preserve">§R§R Keine Erfahrungspunkte zum Ausgeben. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_NO_CHANGES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs wurden keine Änderungen vorgenommen.§!</t>
+    <t xml:space="preserve">§R§R Es wurden keine Änderungen vorgenommen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_NEGATIVE_STATS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDarf keine negativen Werte haben§!</t>
+    <t xml:space="preserve">§R§R Darf keine negativen Werte haben §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_DUPLICATE:</t>
@@ -880,7 +880,7 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_DUPLICATE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HSpeichern unter§!\nWenn Sie dieses Muster speichern, wird §Hgratis§! ein neues Muster erstellt. Das ursprüngliche Muster bleibt unverändert und kann weiter verwendet werden, während Sie das neue Muster einsetzen.</t>
+    <t xml:space="preserve">§H§H Speichern unter §!§! \nWenn Sie dieses Muster speichern, wird §H§H gratis §!§!  ein neues Muster erstellt. Das ursprüngliche Muster bleibt unverändert und kann weiter verwendet werden, während Sie das neue Muster einsetzen.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_DUPLICATE_DESC_NEW_DESIGN:</t>
@@ -916,49 +916,49 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schiffe, die dieses Muster verwenden, werden §HGroßkampfschiffe§!.</t>
+    <t xml:space="preserve">Schiffe, die dieses Muster verwenden, werden §H§H Großkampfschiffe §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HGroßkampfschiffe§! legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien.</t>
+    <t xml:space="preserve">§H§H Großkampfschiffe §!§!  legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schiffe, die dieses Muster verwenden, werden §HSchutzschiffe§!.</t>
+    <t xml:space="preserve">Schiffe, die dieses Muster verwenden, werden §H§H Schutzschiffe §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HSchutzschiffe§! legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien.</t>
+    <t xml:space="preserve">§H§H Schutzschiffe §!§!  legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schiffe, die dieses Muster verwenden, werden keine §HGroßkampfschiffe§!.</t>
+    <t xml:space="preserve">Schiffe, die dieses Muster verwenden, werden keine §H§H Großkampfschiffe §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDie Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Musters beeinflussen.§!</t>
+    <t xml:space="preserve">§Y§Y Die Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Musters beeinflussen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die für die Produktion des Musters verwendeten §HRessourcen§!.</t>
+    <t xml:space="preserve">Die für die Produktion des Musters verwendeten §H§H Ressourcen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §HIndustriekapazität§!-Kosten für die §HProduktion§! dieses Musters.</t>
+    <t xml:space="preserve">Die §H§H Industriekapazität §!§! -Kosten für die §H§H Produktion §!§!  dieses Musters.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_STAT_AVERAGED:</t>
@@ -988,31 +988,31 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HModulplatz:§! $NAME$</t>
+    <t xml:space="preserve">§H§H Modulplatz: §!§!  $NAME$</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HInstalliertes Modul:§! $NAME$</t>
+    <t xml:space="preserve">§H§H Installiertes Modul: §!§!  $NAME$</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schiffe, in deren Muster dieses Modul verwendet wird, werden §HGroßkampfschiffe§!.</t>
+    <t xml:space="preserve">Schiffe, in deren Muster dieses Modul verwendet wird, werden §H§H Großkampfschiffe §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HInstalliertes Modul:§! Keines</t>
+    <t xml:space="preserve">§H§H Installiertes Modul: §!§!  Keines</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HErlaubte Modulkategorien§!</t>
+    <t xml:space="preserve">§H§H Erlaubte Modulkategorien §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SLOT_REQUIRED_TOOLTIP:</t>
@@ -1054,61 +1054,61 @@
     <t xml:space="preserve"> ILLEGAL_EQUIPMENT_CATEGORY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas aktuelle Muster kann nicht in der Rolle $ROLE|H$ eingesetzt werden.§!</t>
+    <t xml:space="preserve">§R§R Das aktuelle Muster kann nicht in der Rolle $ROLE|H$ eingesetzt werden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> REQUIRED_MODULE_EMPTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDem Muster fehlt mindestens ein erforderliches Modul:§!</t>
+    <t xml:space="preserve">§R§R Dem Muster fehlt mindestens ein erforderliches Modul: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_LIMIT_NOT_EQUAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas Muster muss $REQ_COUNT|0$ $TITLE|H$ besitzen.§!</t>
+    <t xml:space="preserve">§R§R Das Muster muss $REQ_COUNT|0$ $TITLE|H$ besitzen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas Muster darf maximal $MAX|0$ $TITLE|H$ besitzen.§!</t>
+    <t xml:space="preserve">§R§R Das Muster darf maximal $MAX|0$ $TITLE|H$ besitzen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas Muster muss mindestens $MIN|0$ $TITLE|H$ besitzen.§!</t>
+    <t xml:space="preserve">§R§R Das Muster muss mindestens $MIN|0$ $TITLE|H$ besitzen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_LIMIT_TITLE_ANY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Rbeliebige Module§!</t>
+    <t xml:space="preserve">§R§R beliebige Module §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Rleere Modulplätze§!</t>
+    <t xml:space="preserve">§R§R leere Modulplätze §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_LIMIT_TITLE_NAME:</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME$ §RModule§!</t>
+    <t xml:space="preserve">$NAME$ §R§R Module §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Rbestimmte Module§!</t>
+    <t xml:space="preserve">§R§R bestimmte Module §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGN_MAX_COST_REACHED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas Muster überschreitet die maximal zulässigen Kosten ($MAX|0$) für diese Klasse.§!</t>
+    <t xml:space="preserve">§R§R Das Muster überschreitet die maximal zulässigen Kosten ($MAX|0$) für diese Klasse. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> COST_RESTRICTED_DESIGN:</t>
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAutomatisches Muster§!\nGenerieren Sie automatisch ein vollständiges Muster, das am besten zum aktuellen Muster passt.</t>
+    <t xml:space="preserve">§H§H Automatisches Muster §!§! \nGenerieren Sie automatisch ein vollständiges Muster, das am besten zum aktuellen Muster passt.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC_DELAYED:</t>
@@ -1138,19 +1138,19 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um das aktuelle Muster §Hanzupassen§!.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um das aktuelle Muster §H§H anzupassen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GUmschalt+Klicken§!, um das aktuelle Muster zu §Hersetzen§!.</t>
+    <t xml:space="preserve">§G§G Umschalt+Klicken §!§! , um das aktuelle Muster zu §H§H ersetzen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAlle Module verbessern§!\nErsetzen Sie alle veralteten Module mit dem besten verfügbaren Modul derselben Linie.</t>
+    <t xml:space="preserve">§H§H Alle Module verbessern §!§! \nErsetzen Sie alle veralteten Module mit dem besten verfügbaren Modul derselben Linie.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC_DELAYED:</t>
@@ -1162,13 +1162,13 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAutomatisch verbessern§!\nWenn diese Option aktiviert ist, wird dieses Muster automatisch verbessert, wenn bessere Chassis und Module verfügbar werden.</t>
+    <t xml:space="preserve">§H§H Automatisch verbessern §!§! \nWenn diese Option aktiviert ist, wird dieses Muster automatisch verbessert, wenn bessere Chassis und Module verfügbar werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RRollenwechsel verboten§!</t>
+    <t xml:space="preserve">§R§R Rollenwechsel verboten §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED_LICENSED:</t>
@@ -1180,19 +1180,19 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RHöchstgeschwindigkeit liegt unter dem Minimum von $SPEED$§!</t>
+    <t xml:space="preserve">§R§R Höchstgeschwindigkeit liegt unter dem Minimum von $SPEED$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas Gewicht übersteigt die Schubkraft§!</t>
+    <t xml:space="preserve">§R§R Das Gewicht übersteigt die Schubkraft §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas Gewicht übersteigt die Schubkraft für folgende Missionen:§!</t>
+    <t xml:space="preserve">§R§R Das Gewicht übersteigt die Schubkraft für folgende Missionen: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_PLANE_ROLE_REQUIRE_WEAPON:</t>
@@ -1321,7 +1321,7 @@
     <t xml:space="preserve"> tank_designer_amphibious_role_disallowed:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §HAmphibisch§! erlaubt, um zu ihr wechseln zu können.</t>
+    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §H§H Amphibisch §!§!  erlaubt, um zu ihr wechseln zu können.</t>
   </si>
   <si>
     <t xml:space="preserve"> tank_designer_anti_air:</t>
@@ -1333,7 +1333,7 @@
     <t xml:space="preserve"> tank_designer_anti_air_role_disallowed:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §HFlak§! erlaubt, um zu ihr wechseln zu können.</t>
+    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §H§H Flak §!§!  erlaubt, um zu ihr wechseln zu können.</t>
   </si>
   <si>
     <t xml:space="preserve"> tank_designer_artillery:</t>
@@ -1345,7 +1345,7 @@
     <t xml:space="preserve"> tank_designer_artillery_role_disallowed:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §HArtillerie§! erlaubt, um zu ihr wechseln zu können.</t>
+    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §H§H Artillerie §!§!  erlaubt, um zu ihr wechseln zu können.</t>
   </si>
   <si>
     <t xml:space="preserve"> tank_designer_anti_tank:</t>
@@ -1357,7 +1357,7 @@
     <t xml:space="preserve"> tank_designer_anti_tank_role_disallowed:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §HJagdpanzer§! erlaubt, um zu ihr wechseln zu können.</t>
+    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §H§H Jagdpanzer §!§!  erlaubt, um zu ihr wechseln zu können.</t>
   </si>
   <si>
     <t xml:space="preserve"> tank_designer_rocket:</t>
@@ -1369,7 +1369,7 @@
     <t xml:space="preserve"> tank_designer_rocket_role_disallowed:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §HRaketenartillerie§! erlaubt, um zu ihr wechseln zu können.</t>
+    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §H§H Raketenartillerie §!§!  erlaubt, um zu ihr wechseln zu können.</t>
   </si>
   <si>
     <t xml:space="preserve"> tank_designer_flame:</t>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve"> tank_designer_flame_role_disallowed:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §HFlamme§! erlaubt, um zu ihr wechseln zu können.</t>
+    <t xml:space="preserve">Fügen Sie ein Modul hinzu, dass die Rolle §H§H Flamme §!§!  erlaubt, um zu ihr wechseln zu können.</t>
   </si>
   <si>
     <t xml:space="preserve"> plane_designer_fighter:</t>
@@ -1876,7 +1876,7 @@
     <t xml:space="preserve"> EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HJede Stufe verleiht:§!</t>
+    <t xml:space="preserve">§H§H Jede Stufe verleiht: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_UPGRADE_CURRENT_MAX_LEVEL:</t>
@@ -1906,7 +1906,7 @@
     <t xml:space="preserve"> EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFür nächste Stufe nötig:§!</t>
+    <t xml:space="preserve">§H§H Für nächste Stufe nötig: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_UPGRADE_NEXT_UPGRADE_COST:</t>
@@ -1924,13 +1924,13 @@
     <t xml:space="preserve"> EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HNächstes Upgrade:§! </t>
+    <t xml:space="preserve">§H§H Nächstes Upgrade: §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HNächstes Downgrade:§! </t>
+    <t xml:space="preserve">§H§H Nächstes Downgrade: §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_UPGRADE_NEXT_UPGRADE_REFUND:</t>
@@ -1948,19 +1948,19 @@
     <t xml:space="preserve"> EQUIPMENT_UPGRADE_RESOURCE_CHANGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HÄnderung des Ressourcenverbrauchs:§!</t>
+    <t xml:space="preserve">§H§H Änderung des Ressourcenverbrauchs: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REine indirekte Abhängigkeit ist nicht erfüllt§!</t>
+    <t xml:space="preserve">§R§R Eine indirekte Abhängigkeit ist nicht erfüllt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$CATEGORY|H$ erfordert:§!</t>
+    <t xml:space="preserve">§R§R $CATEGORY|H$ erfordert: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_ENTRY:</t>
@@ -1972,25 +1972,25 @@
     <t xml:space="preserve"> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RModule der Kategorie $CATEGORY|H$ sind für den Platz $SLOT|H$ nicht erlaubt§!</t>
+    <t xml:space="preserve">§R§R Module der Kategorie $CATEGORY|H$ sind für den Platz $SLOT|H$ nicht erlaubt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$MODULE|H$ Module der Kategorie $CATEGORY|H$ sind verboten§!\n\n</t>
+    <t xml:space="preserve">§R§R $MODULE|H$ Module der Kategorie $CATEGORY|H$ sind verboten §!§! \n\n</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RModule der Kategorie $CATEGORY|H$ werden von $BLOCKING|H$ blockiert§!</t>
+    <t xml:space="preserve">§R§R Module der Kategorie $CATEGORY|H$ werden von $BLOCKING|H$ blockiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDies würde die folgenden derzeit ausgerüsteten Module blockieren: $BLOCK|H$§!</t>
+    <t xml:space="preserve">§R§R Dies würde die folgenden derzeit ausgerüsteten Module blockieren: $BLOCK|H$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_COMPOSITION_VALUE:</t>
@@ -2002,7 +2002,7 @@
     <t xml:space="preserve"> DESIGNER_COMPOSITION_HEADER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YZusammenstellung§!\n</t>
+    <t xml:space="preserve">§Y§Y Zusammenstellung §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_COMPOSITION_SPECIAL_HEADER:</t>
@@ -2038,7 +2038,7 @@
     <t xml:space="preserve"> SUPPORT_COMPANY_FORBID_HEADER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YKann nicht kombiniert werden mit:§!</t>
+    <t xml:space="preserve">§Y§Y Kann nicht kombiniert werden mit: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SELECT_ROLE:</t>
@@ -2050,25 +2050,25 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_SELECT_ROLE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §HRolle§! bestimmt, welche §HBataillone§! und §HUnterstützungskompanien§! mit Ausrüstung dieses Musters ausgestattet werden.</t>
+    <t xml:space="preserve">Die §H§H Rolle §!§!  bestimmt, welche §H§H Bataillone §!§!  und §H§H Unterstützungskompanien §!§!  mit Ausrüstung dieses Musters ausgestattet werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">$MODULE|Y$ §Gerlaubt§!  diese Rolle.</t>
+    <t xml:space="preserve">$MODULE|Y$ §G§G erlaubt §!§!   diese Rolle.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">$MODULE|Y$ §Rverbietet§! diese Rolle.</t>
+    <t xml:space="preserve">$MODULE|Y$ §R§R verbietet §!§!  diese Rolle.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS:</t>
   </si>
   <si>
-    <t xml:space="preserve">$MODULE|Y$ §Rverbietet§! diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist.</t>
+    <t xml:space="preserve">$MODULE|Y$ §R§R verbietet §!§!  diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_THIS_ROLE_IS_FORBIDDEN_DESC:</t>
@@ -2080,7 +2080,7 @@
     <t xml:space="preserve"> EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die folgenden §HModule§! §Gerlauben§! diese Rolle:</t>
+    <t xml:space="preserve">Die folgenden §H§H Module §!§!  §G§G erlauben §!§!  diese Rolle:</t>
   </si>
   <si>
     <t xml:space="preserve"> EQUIPMENT_TYPE_FORBIDDEN:</t>
@@ -2092,7 +2092,7 @@
     <t xml:space="preserve"> DESIGNER_SELECT_NICHE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YAusrüstungstag§! auswählen</t>
+    <t xml:space="preserve">§Y§Y Ausrüstungstag §!§!  auswählen</t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_SELECT_NICHE_DELAYED:</t>
@@ -2110,7 +2110,7 @@
     <t xml:space="preserve"> DESIGNER_SELECT_NICHE_DISABLED_DELAYED:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügen Sie ein Panzerbataillon oder eine Unterstützungskompanie hinzu, um die Auswahl des §YAusrüstungstags§! zu ermöglichen.</t>
+    <t xml:space="preserve">Fügen Sie ein Panzerbataillon oder eine Unterstützungskompanie hinzu, um die Auswahl des §Y§Y Ausrüstungstags §!§!  zu ermöglichen.</t>
   </si>
   <si>
     <t xml:space="preserve"> DESIGNER_SELECT_NICHE_AIR_DELAYED:</t>
@@ -2802,8 +2802,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D437" activeCellId="0" sqref="D1:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2835,11 +2835,11 @@
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> DESIGNER_LOCKED: "§RGesperrt§!"</v>
+        <v> DESIGNER_LOCKED: "§R§R Gesperrt §!§! "</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v> DESIGNER_LOCKED: "§RGesperrt§!"</v>
+        <v> DESIGNER_LOCKED: "§R§R Gesperrt §!§! "</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,11 +2851,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> DESIGNER_ADD: "Zum Hinzufügen §Gklicken§!"</v>
+        <v> DESIGNER_ADD: "Zum Hinzufügen §G§G klicken §!§! "</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> DESIGNER_ADD: "Zum Hinzufügen §Gklicken§!"</v>
+        <v> DESIGNER_ADD: "Zum Hinzufügen §G§G klicken §!§! "</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,11 +2867,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> DESIGNER_CHANGE: "Zum Ändern §Gklicken§!"</v>
+        <v> DESIGNER_CHANGE: "Zum Ändern §G§G klicken §!§! "</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> DESIGNER_CHANGE: "Zum Ändern §Gklicken§!"</v>
+        <v> DESIGNER_CHANGE: "Zum Ändern §G§G klicken §!§! "</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,11 +2883,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> DESIGNER_CHANGE_REMOVE: "Zum Entfernen §GUmschalt+Klick§!"</v>
+        <v> DESIGNER_CHANGE_REMOVE: "Zum Entfernen §G§G Umschalt+Klick §!§! "</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> DESIGNER_CHANGE_REMOVE: "Zum Entfernen §GUmschalt+Klick§!"</v>
+        <v> DESIGNER_CHANGE_REMOVE: "Zum Entfernen §G§G Umschalt+Klick §!§! "</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,11 +2899,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> DESIGNER_DUPLICATE_TO_MODIFY: "§RZum Modifizieren Vorlage duplizieren§!"</v>
+        <v> DESIGNER_DUPLICATE_TO_MODIFY: "§R§R Zum Modifizieren Vorlage duplizieren §!§! "</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> DESIGNER_DUPLICATE_TO_MODIFY: "§RZum Modifizieren Vorlage duplizieren§!"</v>
+        <v> DESIGNER_DUPLICATE_TO_MODIFY: "§R§R Zum Modifizieren Vorlage duplizieren §!§! "</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,11 +2915,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> DESIGNER_BLOCKED: "Dieser Linienbataillonplatz ist §Rgesperrt§!"</v>
+        <v> DESIGNER_BLOCKED: "Dieser Linienbataillonplatz ist §R§R gesperrt §!§! "</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> DESIGNER_BLOCKED: "Dieser Linienbataillonplatz ist §Rgesperrt§!"</v>
+        <v> DESIGNER_BLOCKED: "Dieser Linienbataillonplatz ist §R§R gesperrt §!§! "</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,11 +2947,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> DESIGNER_BLOCKED_TECH_DESC: "\n £trigger_no §H$NAME$ ($CATEGORY$)§!"</v>
+        <v> DESIGNER_BLOCKED_TECH_DESC: "\n £trigger_no §H§H $NAME$ ($CATEGORY$) §!§! "</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> DESIGNER_BLOCKED_TECH_DESC: "\n £trigger_no §H$NAME$ ($CATEGORY$)§!"</v>
+        <v> DESIGNER_BLOCKED_TECH_DESC: "\n £trigger_no §H§H $NAME$ ($CATEGORY$) §!§! "</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,11 +2963,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> DESIGNER_BLOCKED_BY_NOT_HANDLED: "§HZur Freischaltung muss der Spieler spezielle Bedingungen erfüllen.§!"</v>
+        <v> DESIGNER_BLOCKED_BY_NOT_HANDLED: "§H§H Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen. §!§! "</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> DESIGNER_BLOCKED_BY_NOT_HANDLED: "§HZur Freischaltung muss der Spieler spezielle Bedingungen erfüllen.§!"</v>
+        <v> DESIGNER_BLOCKED_BY_NOT_HANDLED: "§H§H Zur Freischaltung muss der Spieler spezielle Bedingungen erfüllen. §!§! "</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,11 +3171,11 @@
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> DESIGNER_COMBATWIDTH_DESC: "Die Gefechtsbreite zeigt an, wie viel Platz diese Division im Kampf einnimmt. Wenn ein Kampf beispielsweise eine Gesamtbreite von §Y80§! hat, können Sie §Y4§! Divisionen mit einer Breite von §Y20§! unterbringen."</v>
+        <v> DESIGNER_COMBATWIDTH_DESC: "Die Gefechtsbreite zeigt an, wie viel Platz diese Division im Kampf einnimmt. Wenn ein Kampf beispielsweise eine Gesamtbreite von §Y§Y 80 §!§!  hat, können Sie §Y§Y 4 §!§!  Divisionen mit einer Breite von §Y§Y 20 §!§!  unterbringen."</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v> DESIGNER_COMBATWIDTH_DESC: "Die Gefechtsbreite zeigt an, wie viel Platz diese Division im Kampf einnimmt. Wenn ein Kampf beispielsweise eine Gesamtbreite von §Y80§! hat, können Sie §Y4§! Divisionen mit einer Breite von §Y20§! unterbringen."</v>
+        <v> DESIGNER_COMBATWIDTH_DESC: "Die Gefechtsbreite zeigt an, wie viel Platz diese Division im Kampf einnimmt. Wenn ein Kampf beispielsweise eine Gesamtbreite von §Y§Y 80 §!§!  hat, können Sie §Y§Y 4 §!§!  Divisionen mit einer Breite von §Y§Y 20 §!§!  unterbringen."</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,11 +3331,11 @@
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> DESIGNER_DUPLICATE_DESC: "Duplizieren, um beim Speichern dieser Vorlage §Ggratis§! eine neue Vorlage zu erstellen. Die ursprüngliche Vorlage bleibt unverändert und kann weiter verwendet werden, während Sie die neue Vorlage einsetzen."</v>
+        <v> DESIGNER_DUPLICATE_DESC: "Duplizieren, um beim Speichern dieser Vorlage §G§G gratis §!§!  eine neue Vorlage zu erstellen. Die ursprüngliche Vorlage bleibt unverändert und kann weiter verwendet werden, während Sie die neue Vorlage einsetzen."</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> DESIGNER_DUPLICATE_DESC: "Duplizieren, um beim Speichern dieser Vorlage §Ggratis§! eine neue Vorlage zu erstellen. Die ursprüngliche Vorlage bleibt unverändert und kann weiter verwendet werden, während Sie die neue Vorlage einsetzen."</v>
+        <v> DESIGNER_DUPLICATE_DESC: "Duplizieren, um beim Speichern dieser Vorlage §G§G gratis §!§!  eine neue Vorlage zu erstellen. Die ursprüngliche Vorlage bleibt unverändert und kann weiter verwendet werden, während Sie die neue Vorlage einsetzen."</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,11 +3427,11 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> DESIGNER_NO_CHANGES: "§TKeine Änderungen zum Speichern§!"</v>
+        <v> DESIGNER_NO_CHANGES: "§T§T Keine Änderungen zum Speichern §!§! "</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> DESIGNER_NO_CHANGES: "§TKeine Änderungen zum Speichern§!"</v>
+        <v> DESIGNER_NO_CHANGES: "§T§T Keine Änderungen zum Speichern §!§! "</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,11 +3827,11 @@
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> EQUIPMENT_TYPE_NOW_FORBIDDEN: "\nAusrüstungstypen sind jetzt §Rverboten§!:\n"</v>
+        <v> EQUIPMENT_TYPE_NOW_FORBIDDEN: "\nAusrüstungstypen sind jetzt §R§R verboten §!§! :\n"</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> EQUIPMENT_TYPE_NOW_FORBIDDEN: "\nAusrüstungstypen sind jetzt §Rverboten§!:\n"</v>
+        <v> EQUIPMENT_TYPE_NOW_FORBIDDEN: "\nAusrüstungstypen sind jetzt §R§R verboten §!§! :\n"</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,11 +3843,11 @@
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> EQUIPMENT_TYPE_NOW_ALLOWED: "\nAusrüstungstypen sind jetzt §Gerlaubt§!:\n"</v>
+        <v> EQUIPMENT_TYPE_NOW_ALLOWED: "\nAusrüstungstypen sind jetzt §G§G erlaubt §!§! :\n"</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> EQUIPMENT_TYPE_NOW_ALLOWED: "\nAusrüstungstypen sind jetzt §Gerlaubt§!:\n"</v>
+        <v> EQUIPMENT_TYPE_NOW_ALLOWED: "\nAusrüstungstypen sind jetzt §G§G erlaubt §!§! :\n"</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,11 +3859,11 @@
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> EQUIPMENT_TYPE_ALL_FORBIDDEN: "- $EQUIPMENT_TYPE|H$ (§Rbenötigt§!)\n"</v>
+        <v> EQUIPMENT_TYPE_ALL_FORBIDDEN: "- $EQUIPMENT_TYPE|H$ (§R§R benötigt §!§! )\n"</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> EQUIPMENT_TYPE_ALL_FORBIDDEN: "- $EQUIPMENT_TYPE|H$ (§Rbenötigt§!)\n"</v>
+        <v> EQUIPMENT_TYPE_ALL_FORBIDDEN: "- $EQUIPMENT_TYPE|H$ (§R§R benötigt §!§! )\n"</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> EQUIPMENT_ARCHETYPE_DESELECTED: "§RDer Vorlage fehlt Ausrüstung:§!\n"</v>
+        <v> EQUIPMENT_ARCHETYPE_DESELECTED: "§R§R Der Vorlage fehlt Ausrüstung: §!§! \n"</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> EQUIPMENT_ARCHETYPE_DESELECTED: "§RDer Vorlage fehlt Ausrüstung:§!\n"</v>
+        <v> EQUIPMENT_ARCHETYPE_DESELECTED: "§R§R Der Vorlage fehlt Ausrüstung: §!§! \n"</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,11 +3955,11 @@
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> NO_INTERSECTED_EQUIPMENT_DESC: "Diese Modifikation führt dazu, dass bestehende Divisionen mit dieser Vorlage §RAUFGELÖST§! werden. Es gibt keine Ausrüstungsüberschneidung zwischen der modifizierten und der ursprünglichen Vorlage."</v>
+        <v> NO_INTERSECTED_EQUIPMENT_DESC: "Diese Modifikation führt dazu, dass bestehende Divisionen mit dieser Vorlage §R§R AUFGELÖST §!§!  werden. Es gibt keine Ausrüstungsüberschneidung zwischen der modifizierten und der ursprünglichen Vorlage."</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> NO_INTERSECTED_EQUIPMENT_DESC: "Diese Modifikation führt dazu, dass bestehende Divisionen mit dieser Vorlage §RAUFGELÖST§! werden. Es gibt keine Ausrüstungsüberschneidung zwischen der modifizierten und der ursprünglichen Vorlage."</v>
+        <v> NO_INTERSECTED_EQUIPMENT_DESC: "Diese Modifikation führt dazu, dass bestehende Divisionen mit dieser Vorlage §R§R AUFGELÖST §!§!  werden. Es gibt keine Ausrüstungsüberschneidung zwischen der modifizierten und der ursprünglichen Vorlage."</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,11 +4003,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_RESOURCE_DESC: "Die für die Produktion der Ausrüstung für eine Division dieser Vorlage verwendeten §HRessourcen§!."</v>
+        <v> DIVISION_PRODUCTION_RESOURCE_DESC: "Die für die Produktion der Ausrüstung für eine Division dieser Vorlage verwendeten §H§H Ressourcen §!§! ."</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> DIVISION_PRODUCTION_RESOURCE_DESC: "Die für die Produktion der Ausrüstung für eine Division dieser Vorlage verwendeten §HRessourcen§!."</v>
+        <v> DIVISION_PRODUCTION_RESOURCE_DESC: "Die für die Produktion der Ausrüstung für eine Division dieser Vorlage verwendeten §H§H Ressourcen §!§! ."</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,11 +4019,11 @@
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> DIVISION_PRODUCTION_COST_DESC: "Die §HIndustriekapazität§!-Kosten für die Produktion der Ausrüstung für eine Division dieser Vorlage."</v>
+        <v> DIVISION_PRODUCTION_COST_DESC: "Die §H§H Industriekapazität §!§! -Kosten für die Produktion der Ausrüstung für eine Division dieser Vorlage."</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> DIVISION_PRODUCTION_COST_DESC: "Die §HIndustriekapazität§!-Kosten für die Produktion der Ausrüstung für eine Division dieser Vorlage."</v>
+        <v> DIVISION_PRODUCTION_COST_DESC: "Die §H§H Industriekapazität §!§! -Kosten für die Produktion der Ausrüstung für eine Division dieser Vorlage."</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,11 +4083,11 @@
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL: "Die Kosten für den Umbau eines Schiffs vom §Hursprünglichen Muster§! zu diesem Muster."</v>
+        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL: "Die Kosten für den Umbau eines Schiffs vom §H§H ursprünglichen Muster §!§!  zu diesem Muster."</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL: "Die Kosten für den Umbau eines Schiffs vom §Hursprünglichen Muster§! zu diesem Muster."</v>
+        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL: "Die Kosten für den Umbau eines Schiffs vom §H§H ursprünglichen Muster §!§!  zu diesem Muster."</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,11 +4099,11 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND: "Die Kosten für den Umbau von Ausrüstung vom §Hursprünglichen Muster§! zu diesem Muster."</v>
+        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND: "Die Kosten für den Umbau von Ausrüstung vom §H§H ursprünglichen Muster §!§!  zu diesem Muster."</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND: "Die Kosten für den Umbau von Ausrüstung vom §Hursprünglichen Muster§! zu diesem Muster."</v>
+        <v> DESIGNER_REFIT_COST_FROM_ORIGINAL_LAND: "Die Kosten für den Umbau von Ausrüstung vom §H§H ursprünglichen Muster §!§!  zu diesem Muster."</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,11 +4291,11 @@
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED: "\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )"</v>
+        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED: "\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen zu füllen ( §R§R $STOCK_AMOUNT|H0^$ verfügbar §!§!  )"</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
-        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED: "\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )"</v>
+        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED: "\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen zu füllen ( §R§R $STOCK_AMOUNT|H0^$ verfügbar §!§!  )"</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,11 +4339,11 @@
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON: "\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen und Garnisonen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )"</v>
+        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON: "\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen und Garnisonen zu füllen ( §R§R $STOCK_AMOUNT|H0^$ verfügbar §!§!  )"</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
-        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON: "\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen und Garnisonen zu füllen ( §R$STOCK_AMOUNT|H0^$ verfügbar§! )"</v>
+        <v> DIVISION_MODIFICATION_NEED_NOT_FILLED_GARRISON: "\\t- $AMOUNT|H0$ zusätzliche $EQUIPMENT|H$ wird benötigt, um Divisionen und Garnisonen zu füllen ( §R§R $STOCK_AMOUNT|H0^$ verfügbar §!§!  )"</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,11 +4387,11 @@
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> SELECTED_SUBUNIT: "§G(Derzeit ausgewählt)§!"</v>
+        <v> SELECTED_SUBUNIT: "§G§G (Derzeit ausgewählt) §!§! "</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v> SELECTED_SUBUNIT: "§G(Derzeit ausgewählt)§!"</v>
+        <v> SELECTED_SUBUNIT: "§G§G (Derzeit ausgewählt) §!§! "</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,11 +4419,11 @@
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> DESIGNER_EMPTY_REGIMENT: "§RSie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage erstellen zu können§!"</v>
+        <v> DESIGNER_EMPTY_REGIMENT: "§R§R Sie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage erstellen zu können §!§! "</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v> DESIGNER_EMPTY_REGIMENT: "§RSie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage erstellen zu können§!"</v>
+        <v> DESIGNER_EMPTY_REGIMENT: "§R§R Sie müssen ein Kampfbataillon hinzufügen, um eine neue Divisionsvorlage erstellen zu können §!§! "</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,11 +4435,11 @@
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> DESIGNER_EMPTY_NAME: "§RDie Divisionsvorlage darf keinen leeren Namen haben§!"</v>
+        <v> DESIGNER_EMPTY_NAME: "§R§R Die Divisionsvorlage darf keinen leeren Namen haben §!§! "</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> DESIGNER_EMPTY_NAME: "§RDie Divisionsvorlage darf keinen leeren Namen haben§!"</v>
+        <v> DESIGNER_EMPTY_NAME: "§R§R Die Divisionsvorlage darf keinen leeren Namen haben §!§! "</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,11 +4451,11 @@
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> DESIGNER_TEMPLATE_NAME_EXISTS: "§REs besteht bereits eine andere Divisionsvorlage mit demselben Namen§!"</v>
+        <v> DESIGNER_TEMPLATE_NAME_EXISTS: "§R§R Es besteht bereits eine andere Divisionsvorlage mit demselben Namen §!§! "</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
-        <v> DESIGNER_TEMPLATE_NAME_EXISTS: "§REs besteht bereits eine andere Divisionsvorlage mit demselben Namen§!"</v>
+        <v> DESIGNER_TEMPLATE_NAME_EXISTS: "§R§R Es besteht bereits eine andere Divisionsvorlage mit demselben Namen §!§! "</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4467,11 +4467,11 @@
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> DESIGNER_SUPPORT_COLUMN_TITLE: "Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronteinheiten stehen und diese unterstützen.\n\nSie können nur jeweils einen Typ auswählen. Unterstützungskompanien wirken sich nicht auf die §YHöchstgeschwindigkeit§! der Division aus (mit Ausnahme von Geländeboni) und erhöhen nicht ihre §YGefechtsbreite§!"</v>
+        <v> DESIGNER_SUPPORT_COLUMN_TITLE: "Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronteinheiten stehen und diese unterstützen.\n\nSie können nur jeweils einen Typ auswählen. Unterstützungskompanien wirken sich nicht auf die §Y§Y Höchstgeschwindigkeit §!§!  der Division aus (mit Ausnahme von Geländeboni) und erhöhen nicht ihre §Y§Y Gefechtsbreite §!§! "</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> DESIGNER_SUPPORT_COLUMN_TITLE: "Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronteinheiten stehen und diese unterstützen.\n\nSie können nur jeweils einen Typ auswählen. Unterstützungskompanien wirken sich nicht auf die §YHöchstgeschwindigkeit§! der Division aus (mit Ausnahme von Geländeboni) und erhöhen nicht ihre §YGefechtsbreite§!"</v>
+        <v> DESIGNER_SUPPORT_COLUMN_TITLE: "Unterstützungskompanien. Dies sind Unterstützungstruppen, die hinter den Fronteinheiten stehen und diese unterstützen.\n\nSie können nur jeweils einen Typ auswählen. Unterstützungskompanien wirken sich nicht auf die §Y§Y Höchstgeschwindigkeit §!§!  der Division aus (mit Ausnahme von Geländeboni) und erhöhen nicht ihre §Y§Y Gefechtsbreite §!§! "</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,11 +4483,11 @@
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v> DESIGNER_MAIN_COLUMN_TITLE: "Linienbataillone sind Ihre Fronttruppen.\n\nJede Spalte besteht aus einem Regiment eines bestimmten Basistyps, wie §YPanzer§!, §YInfanterie§! oder §YMotorisierte Truppen§!. Der oberste Typ bestimmt, womit Sie diese Regimentsspalte noch bestücken können. Je mehr Linienbataillone Sie besitzen, desto größer ist Ihre §YGefechtsbreite§! und desto weniger dieser Divisionen können Sie in das gleiche Gefecht schicken."</v>
+        <v> DESIGNER_MAIN_COLUMN_TITLE: "Linienbataillone sind Ihre Fronttruppen.\n\nJede Spalte besteht aus einem Regiment eines bestimmten Basistyps, wie §Y§Y Panzer §!§! , §Y§Y Infanterie §!§!  oder §Y§Y Motorisierte Truppen §!§! . Der oberste Typ bestimmt, womit Sie diese Regimentsspalte noch bestücken können. Je mehr Linienbataillone Sie besitzen, desto größer ist Ihre §Y§Y Gefechtsbreite §!§!  und desto weniger dieser Divisionen können Sie in das gleiche Gefecht schicken."</v>
       </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
-        <v> DESIGNER_MAIN_COLUMN_TITLE: "Linienbataillone sind Ihre Fronttruppen.\n\nJede Spalte besteht aus einem Regiment eines bestimmten Basistyps, wie §YPanzer§!, §YInfanterie§! oder §YMotorisierte Truppen§!. Der oberste Typ bestimmt, womit Sie diese Regimentsspalte noch bestücken können. Je mehr Linienbataillone Sie besitzen, desto größer ist Ihre §YGefechtsbreite§! und desto weniger dieser Divisionen können Sie in das gleiche Gefecht schicken."</v>
+        <v> DESIGNER_MAIN_COLUMN_TITLE: "Linienbataillone sind Ihre Fronttruppen.\n\nJede Spalte besteht aus einem Regiment eines bestimmten Basistyps, wie §Y§Y Panzer §!§! , §Y§Y Infanterie §!§!  oder §Y§Y Motorisierte Truppen §!§! . Der oberste Typ bestimmt, womit Sie diese Regimentsspalte noch bestücken können. Je mehr Linienbataillone Sie besitzen, desto größer ist Ihre §Y§Y Gefechtsbreite §!§!  und desto weniger dieser Divisionen können Sie in das gleiche Gefecht schicken."</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,11 +4531,11 @@
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> REINFORCE_WITH_EQUIPMENT: "Aktivieren, um durch diese Ausrüstung zu verstärken. \n§GUmschalt-Klick§!, um sämtliche Ausrüstung dieses Typs zu verbieten.\n"</v>
+        <v> REINFORCE_WITH_EQUIPMENT: "Aktivieren, um durch diese Ausrüstung zu verstärken. \n§G§G Umschalt-Klick §!§! , um sämtliche Ausrüstung dieses Typs zu verbieten.\n"</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v> REINFORCE_WITH_EQUIPMENT: "Aktivieren, um durch diese Ausrüstung zu verstärken. \n§GUmschalt-Klick§!, um sämtliche Ausrüstung dieses Typs zu verbieten.\n"</v>
+        <v> REINFORCE_WITH_EQUIPMENT: "Aktivieren, um durch diese Ausrüstung zu verstärken. \n§G§G Umschalt-Klick §!§! , um sämtliche Ausrüstung dieses Typs zu verbieten.\n"</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,11 +4659,11 @@
       </c>
       <c r="C116" s="1" t="str">
         <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v> DIVISION_NAMES_GROUP_LIST_HEADER: "§HBeispielnamen:§!"</v>
+        <v> DIVISION_NAMES_GROUP_LIST_HEADER: "§H§H Beispielnamen: §!§! "</v>
       </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
-        <v> DIVISION_NAMES_GROUP_LIST_HEADER: "§HBeispielnamen:§!"</v>
+        <v> DIVISION_NAMES_GROUP_LIST_HEADER: "§H§H Beispielnamen: §!§! "</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,11 +4707,11 @@
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v> DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK: "\n\n§HErsatzname:§!\n  $NAME$"</v>
+        <v> DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK: "\n\n§H§H Ersatzname: §!§! \n  $NAME$"</v>
       </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
-        <v> DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK: "\n\n§HErsatzname:§!\n  $NAME$"</v>
+        <v> DIVISION_NAMES_GROUP_LIST_ENTRY_FALLBACK: "\n\n§H§H Ersatzname: §!§! \n  $NAME$"</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,11 +4723,11 @@
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> DIVISION_NAMES_GROUP_DESC: "§HGruppe mit historischen Divisionsnamen.§!\nAlle Divisionen dieser Vorlage verwenden die Namen aus diesem Pool. Wenn Sie die Gruppe jetzt ändern, werden alle Divisionen dieser aktuellen Vorlage umbenannt – mit Ausnahme derjenigen, die Sie selbst benannt haben."</v>
+        <v> DIVISION_NAMES_GROUP_DESC: "§H§H Gruppe mit historischen Divisionsnamen. §!§! \nAlle Divisionen dieser Vorlage verwenden die Namen aus diesem Pool. Wenn Sie die Gruppe jetzt ändern, werden alle Divisionen dieser aktuellen Vorlage umbenannt – mit Ausnahme derjenigen, die Sie selbst benannt haben."</v>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v> DIVISION_NAMES_GROUP_DESC: "§HGruppe mit historischen Divisionsnamen.§!\nAlle Divisionen dieser Vorlage verwenden die Namen aus diesem Pool. Wenn Sie die Gruppe jetzt ändern, werden alle Divisionen dieser aktuellen Vorlage umbenannt – mit Ausnahme derjenigen, die Sie selbst benannt haben."</v>
+        <v> DIVISION_NAMES_GROUP_DESC: "§H§H Gruppe mit historischen Divisionsnamen. §!§! \nAlle Divisionen dieser Vorlage verwenden die Namen aus diesem Pool. Wenn Sie die Gruppe jetzt ändern, werden alle Divisionen dieser aktuellen Vorlage umbenannt – mit Ausnahme derjenigen, die Sie selbst benannt haben."</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,11 +4883,11 @@
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SAVE_DESC: "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dieses Muster als §Hneues Muster§! zu speichern."</v>
+        <v> EQUIPMENT_DESIGNER_SAVE_DESC: "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dieses Muster als §H§H neues Muster §!§!  zu speichern."</v>
       </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
-        <v> EQUIPMENT_DESIGNER_SAVE_DESC: "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dieses Muster als §Hneues Muster§! zu speichern."</v>
+        <v> EQUIPMENT_DESIGNER_SAVE_DESC: "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um dieses Muster als §H§H neues Muster §!§!  zu speichern."</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,11 +4931,11 @@
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC: "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §Hdiesem Muster§! zu speichern."</v>
+        <v> EQUIPMENT_DESIGNER_UPDATE_DESC: "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §H§H diesem Muster §!§!  zu speichern."</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC: "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §Hdiesem Muster§! zu speichern."</v>
+        <v> EQUIPMENT_DESIGNER_UPDATE_DESC: "Geben Sie £$XPICON$ $XPCOST|Y0$ aus, um die Änderungen an §H§H diesem Muster §!§!  zu speichern."</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,11 +4947,11 @@
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT: "Weil das ursprüngliche Muster §Hverwendet wird§!, wird ein neues Muster erstellt. Das ursprüngliche Muster wird §Haußer Betrieb gesetzt§!."</v>
+        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT: "Weil das ursprüngliche Muster §H§H verwendet wird §!§! , wird ein neues Muster erstellt. Das ursprüngliche Muster wird §H§H außer Betrieb gesetzt §!§! ."</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT: "Weil das ursprüngliche Muster §Hverwendet wird§!, wird ein neues Muster erstellt. Das ursprüngliche Muster wird §Haußer Betrieb gesetzt§!."</v>
+        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_OBSOLETE_PARENT: "Weil das ursprüngliche Muster §H§H verwendet wird §!§! , wird ein neues Muster erstellt. Das ursprüngliche Muster wird §H§H außer Betrieb gesetzt §!§! ."</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,11 +4963,11 @@
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE: "Weil die §HRolle§! sich verändert hat, wird ein neues Muster erstellt."</v>
+        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE: "Weil die §H§H Rolle §!§!  sich verändert hat, wird ein neues Muster erstellt."</v>
       </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE: "Weil die §HRolle§! sich verändert hat, wird ein neues Muster erstellt."</v>
+        <v> EQUIPMENT_DESIGNER_UPDATE_DESC_NEW_ROLE: "Weil die §H§H Rolle §!§!  sich verändert hat, wird ein neues Muster erstellt."</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,11 +4995,11 @@
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC: "Speichern Sie die Änderungen an §Hdiesem Muster§!."</v>
+        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC: "Speichern Sie die Änderungen an §H§H diesem Muster §!§! ."</v>
       </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
-        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC: "Speichern Sie die Änderungen an §Hdiesem Muster§!."</v>
+        <v> EQUIPMENT_DESIGNER_UPDATE_COSMETIC_DESC: "Speichern Sie die Änderungen an §H§H diesem Muster §!§! ."</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="C139" s="1" t="str">
         <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_EMPTY_NAME: "§RSie müssen dem Muster einen Namen geben.§!"</v>
+        <v> EQUIPMENT_DESIGNER_EMPTY_NAME: "§R§R Sie müssen dem Muster einen Namen geben. §!§! "</v>
       </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
-        <v> EQUIPMENT_DESIGNER_EMPTY_NAME: "§RSie müssen dem Muster einen Namen geben.§!"</v>
+        <v> EQUIPMENT_DESIGNER_EMPTY_NAME: "§R§R Sie müssen dem Muster einen Namen geben. §!§! "</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,11 +5043,11 @@
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_NOT_ENOUGH_XP: "§RDas Muster ist zu teuer.§!"</v>
+        <v> EQUIPMENT_DESIGNER_NOT_ENOUGH_XP: "§R§R Das Muster ist zu teuer. §!§! "</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v> EQUIPMENT_DESIGNER_NOT_ENOUGH_XP: "§RDas Muster ist zu teuer.§!"</v>
+        <v> EQUIPMENT_DESIGNER_NOT_ENOUGH_XP: "§R§R Das Muster ist zu teuer. §!§! "</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,11 +5059,11 @@
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_NO_XP: "§RKeine Erfahrungspunkte zum Ausgeben.§!"</v>
+        <v> EQUIPMENT_DESIGNER_NO_XP: "§R§R Keine Erfahrungspunkte zum Ausgeben. §!§! "</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v> EQUIPMENT_DESIGNER_NO_XP: "§RKeine Erfahrungspunkte zum Ausgeben.§!"</v>
+        <v> EQUIPMENT_DESIGNER_NO_XP: "§R§R Keine Erfahrungspunkte zum Ausgeben. §!§! "</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,11 +5075,11 @@
       </c>
       <c r="C142" s="1" t="str">
         <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_NO_CHANGES: "§REs wurden keine Änderungen vorgenommen.§!"</v>
+        <v> EQUIPMENT_DESIGNER_NO_CHANGES: "§R§R Es wurden keine Änderungen vorgenommen. §!§! "</v>
       </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
-        <v> EQUIPMENT_DESIGNER_NO_CHANGES: "§REs wurden keine Änderungen vorgenommen.§!"</v>
+        <v> EQUIPMENT_DESIGNER_NO_CHANGES: "§R§R Es wurden keine Änderungen vorgenommen. §!§! "</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_NEGATIVE_STATS: "§RDarf keine negativen Werte haben§!"</v>
+        <v> EQUIPMENT_DESIGNER_NEGATIVE_STATS: "§R§R Darf keine negativen Werte haben §!§! "</v>
       </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
-        <v> EQUIPMENT_DESIGNER_NEGATIVE_STATS: "§RDarf keine negativen Werte haben§!"</v>
+        <v> EQUIPMENT_DESIGNER_NEGATIVE_STATS: "§R§R Darf keine negativen Werte haben §!§! "</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,11 +5123,11 @@
       </c>
       <c r="C145" s="1" t="str">
         <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_DUPLICATE_DESC: "§HSpeichern unter§!\nWenn Sie dieses Muster speichern, wird §Hgratis§! ein neues Muster erstellt. Das ursprüngliche Muster bleibt unverändert und kann weiter verwendet werden, während Sie das neue Muster einsetzen."</v>
+        <v> EQUIPMENT_DESIGNER_DUPLICATE_DESC: "§H§H Speichern unter §!§! \nWenn Sie dieses Muster speichern, wird §H§H gratis §!§!  ein neues Muster erstellt. Das ursprüngliche Muster bleibt unverändert und kann weiter verwendet werden, während Sie das neue Muster einsetzen."</v>
       </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
-        <v> EQUIPMENT_DESIGNER_DUPLICATE_DESC: "§HSpeichern unter§!\nWenn Sie dieses Muster speichern, wird §Hgratis§! ein neues Muster erstellt. Das ursprüngliche Muster bleibt unverändert und kann weiter verwendet werden, während Sie das neue Muster einsetzen."</v>
+        <v> EQUIPMENT_DESIGNER_DUPLICATE_DESC: "§H§H Speichern unter §!§! \nWenn Sie dieses Muster speichern, wird §H§H gratis §!§!  ein neues Muster erstellt. Das ursprüngliche Muster bleibt unverändert und kann weiter verwendet werden, während Sie das neue Muster einsetzen."</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden §HGroßkampfschiffe§!."</v>
+        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden §H§H Großkampfschiffe §!§! ."</v>
       </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
-        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden §HGroßkampfschiffe§!."</v>
+        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden §H§H Großkampfschiffe §!§! ."</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,11 +5251,11 @@
       </c>
       <c r="C153" s="1" t="str">
         <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP: "§HGroßkampfschiffe§! legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
+        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP: "§H§H Großkampfschiffe §!§!  legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
       </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
-        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP: "§HGroßkampfschiffe§! legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
+        <v> EQUIPMENT_DESIGNER_IS_CAPITAL_SHIP_EFFECTS_TOOLTIP: "§H§H Großkampfschiffe §!§!  legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,11 +5267,11 @@
       </c>
       <c r="C154" s="1" t="str">
         <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden §HSchutzschiffe§!."</v>
+        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden §H§H Schutzschiffe §!§! ."</v>
       </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
-        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden §HSchutzschiffe§!."</v>
+        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden §H§H Schutzschiffe §!§! ."</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="C155" s="1" t="str">
         <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP: "§HSchutzschiffe§! legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
+        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP: "§H§H Schutzschiffe §!§!  legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
       </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
-        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP: "§HSchutzschiffe§! legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
+        <v> EQUIPMENT_DESIGNER_IS_SCREEN_SHIP_EFFECTS_TOOLTIP: "§H§H Schutzschiffe §!§!  legen im Kampf ein anderes Verhalten an den Tag und werden von anderen Modifikatoren beeinflusst als andere Schiffskategorien."</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,11 +5299,11 @@
       </c>
       <c r="C156" s="1" t="str">
         <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden keine §HGroßkampfschiffe§!."</v>
+        <v> EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden keine §H§H Großkampfschiffe §!§! ."</v>
       </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
-        <v> EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden keine §HGroßkampfschiffe§!."</v>
+        <v> EQUIPMENT_DESIGNER_IS_NOT_CAPITAL_SHIP_TOOLTIP: "Schiffe, die dieses Muster verwenden, werden keine §H§H Großkampfschiffe §!§! ."</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,11 +5315,11 @@
       </c>
       <c r="C157" s="1" t="str">
         <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP: "§YDie Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Musters beeinflussen.§!"</v>
+        <v> EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP: "§Y§Y Die Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Musters beeinflussen. §!§! "</v>
       </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
-        <v> EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP: "§YDie Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Musters beeinflussen.§!"</v>
+        <v> EQUIPMENT_DESIGNER_VARIABLE_CATEGORY_TOOLTIP: "§Y§Y Die Wahl der Ausrüstungsmodule kann die Schiffskategorie dieses Musters beeinflussen. §!§! "</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,11 +5331,11 @@
       </c>
       <c r="C158" s="1" t="str">
         <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC: "Die für die Produktion des Musters verwendeten §HRessourcen§!."</v>
+        <v> EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC: "Die für die Produktion des Musters verwendeten §H§H Ressourcen §!§! ."</v>
       </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
-        <v> EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC: "Die für die Produktion des Musters verwendeten §HRessourcen§!."</v>
+        <v> EQUIPMENT_DESIGNER_PRODUCTION_RESOURCE_DESC: "Die für die Produktion des Musters verwendeten §H§H Ressourcen §!§! ."</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,11 +5347,11 @@
       </c>
       <c r="C159" s="1" t="str">
         <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC: "Die §HIndustriekapazität§!-Kosten für die §HProduktion§! dieses Musters."</v>
+        <v> EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC: "Die §H§H Industriekapazität §!§! -Kosten für die §H§H Produktion §!§!  dieses Musters."</v>
       </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
-        <v> EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC: "Die §HIndustriekapazität§!-Kosten für die §HProduktion§! dieses Musters."</v>
+        <v> EQUIPMENT_DESIGNER_PRODUCTION_COST_DESC: "Die §H§H Industriekapazität §!§! -Kosten für die §H§H Produktion §!§!  dieses Musters."</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP: "§HModulplatz:§! $NAME$"</v>
+        <v> EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP: "§H§H Modulplatz: §!§!  $NAME$"</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP: "§HModulplatz:§! $NAME$"</v>
+        <v> EQUIPMENT_DESIGNER_SLOT_NAME_TOOLTIP: "§H§H Modulplatz: §!§!  $NAME$"</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,11 +5443,11 @@
       </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP: "§HInstalliertes Modul:§! $NAME$"</v>
+        <v> EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP: "§H§H Installiertes Modul: §!§!  $NAME$"</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP: "§HInstalliertes Modul:§! $NAME$"</v>
+        <v> EQUIPMENT_DESIGNER_SLOT_MODULE_TOOLTIP: "§H§H Installiertes Modul: §!§!  $NAME$"</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,11 +5459,11 @@
       </c>
       <c r="C166" s="1" t="str">
         <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY: "Schiffe, in deren Muster dieses Modul verwendet wird, werden §HGroßkampfschiffe§!."</v>
+        <v> EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY: "Schiffe, in deren Muster dieses Modul verwendet wird, werden §H§H Großkampfschiffe §!§! ."</v>
       </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
-        <v> EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY: "Schiffe, in deren Muster dieses Modul verwendet wird, werden §HGroßkampfschiffe§!."</v>
+        <v> EQUIPMENT_MODULE_ADD_CAPITAL_SHIP_CATEGORY: "Schiffe, in deren Muster dieses Modul verwendet wird, werden §H§H Großkampfschiffe §!§! ."</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="C167" s="1" t="str">
         <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP: "§HInstalliertes Modul:§! Keines"</v>
+        <v> EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP: "§H§H Installiertes Modul: §!§!  Keines"</v>
       </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP: "§HInstalliertes Modul:§! Keines"</v>
+        <v> EQUIPMENT_DESIGNER_SLOT_EMPTY_TOOLTIP: "§H§H Installiertes Modul: §!§!  Keines"</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,11 +5491,11 @@
       </c>
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP: "§HErlaubte Modulkategorien§!"</v>
+        <v> EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP: "§H§H Erlaubte Modulkategorien §!§! "</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
-        <v> EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP: "§HErlaubte Modulkategorien§!"</v>
+        <v> EQUIPMENT_DESIGNER_SLOT_ALLOWED_CATEGORIES_TOOLTIP: "§H§H Erlaubte Modulkategorien §!§! "</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,11 +5603,11 @@
       </c>
       <c r="C175" s="1" t="str">
         <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v> ILLEGAL_EQUIPMENT_CATEGORY: "§RDas aktuelle Muster kann nicht in der Rolle $ROLE|H$ eingesetzt werden.§!"</v>
+        <v> ILLEGAL_EQUIPMENT_CATEGORY: "§R§R Das aktuelle Muster kann nicht in der Rolle $ROLE|H$ eingesetzt werden. §!§! "</v>
       </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
-        <v> ILLEGAL_EQUIPMENT_CATEGORY: "§RDas aktuelle Muster kann nicht in der Rolle $ROLE|H$ eingesetzt werden.§!"</v>
+        <v> ILLEGAL_EQUIPMENT_CATEGORY: "§R§R Das aktuelle Muster kann nicht in der Rolle $ROLE|H$ eingesetzt werden. §!§! "</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,11 +5619,11 @@
       </c>
       <c r="C176" s="1" t="str">
         <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v> REQUIRED_MODULE_EMPTY: "§RDem Muster fehlt mindestens ein erforderliches Modul:§!"</v>
+        <v> REQUIRED_MODULE_EMPTY: "§R§R Dem Muster fehlt mindestens ein erforderliches Modul: §!§! "</v>
       </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
-        <v> REQUIRED_MODULE_EMPTY: "§RDem Muster fehlt mindestens ein erforderliches Modul:§!"</v>
+        <v> REQUIRED_MODULE_EMPTY: "§R§R Dem Muster fehlt mindestens ein erforderliches Modul: §!§! "</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,11 +5635,11 @@
       </c>
       <c r="C177" s="1" t="str">
         <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_NOT_EQUAL: "§RDas Muster muss $REQ_COUNT|0$ $TITLE|H$ besitzen.§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_NOT_EQUAL: "§R§R Das Muster muss $REQ_COUNT|0$ $TITLE|H$ besitzen. §!§! "</v>
       </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_NOT_EQUAL: "§RDas Muster muss $REQ_COUNT|0$ $TITLE|H$ besitzen.§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_NOT_EQUAL: "§R§R Das Muster muss $REQ_COUNT|0$ $TITLE|H$ besitzen. §!§! "</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="C178" s="1" t="str">
         <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED: "§RDas Muster darf maximal $MAX|0$ $TITLE|H$ besitzen.§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED: "§R§R Das Muster darf maximal $MAX|0$ $TITLE|H$ besitzen. §!§! "</v>
       </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED: "§RDas Muster darf maximal $MAX|0$ $TITLE|H$ besitzen.§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_MAX_EXCEEDED: "§R§R Das Muster darf maximal $MAX|0$ $TITLE|H$ besitzen. §!§! "</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,11 +5667,11 @@
       </c>
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED: "§RDas Muster muss mindestens $MIN|0$ $TITLE|H$ besitzen.§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED: "§R§R Das Muster muss mindestens $MIN|0$ $TITLE|H$ besitzen. §!§! "</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED: "§RDas Muster muss mindestens $MIN|0$ $TITLE|H$ besitzen.§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_MIN_EXCEEDED: "§R§R Das Muster muss mindestens $MIN|0$ $TITLE|H$ besitzen. §!§! "</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,11 +5683,11 @@
       </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_ANY: "§Rbeliebige Module§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_TITLE_ANY: "§R§R beliebige Module §!§! "</v>
       </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_ANY: "§Rbeliebige Module§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_TITLE_ANY: "§R§R beliebige Module §!§! "</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,11 +5699,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY: "§Rleere Modulplätze§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY: "§R§R leere Modulplätze §!§! "</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY: "§Rleere Modulplätze§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_TITLE_EMPTY: "§R§R leere Modulplätze §!§! "</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,11 +5715,11 @@
       </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_NAME: "$NAME$ §RModule§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_TITLE_NAME: "$NAME$ §R§R Module §!§! "</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_NAME: "$NAME$ §RModule§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_TITLE_NAME: "$NAME$ §R§R Module §!§! "</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,11 +5731,11 @@
       </c>
       <c r="C183" s="1" t="str">
         <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN: "§Rbestimmte Module§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN: "§R§R bestimmte Module §!§! "</v>
       </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
-        <v> EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN: "§Rbestimmte Module§!"</v>
+        <v> EQUIPMENT_MODULE_LIMIT_TITLE_UNKNOWN: "§R§R bestimmte Module §!§! "</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,11 +5747,11 @@
       </c>
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> DESIGN_MAX_COST_REACHED: "§RDas Muster überschreitet die maximal zulässigen Kosten ($MAX|0$) für diese Klasse.§!"</v>
+        <v> DESIGN_MAX_COST_REACHED: "§R§R Das Muster überschreitet die maximal zulässigen Kosten ($MAX|0$) für diese Klasse. §!§! "</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
-        <v> DESIGN_MAX_COST_REACHED: "§RDas Muster überschreitet die maximal zulässigen Kosten ($MAX|0$) für diese Klasse.§!"</v>
+        <v> DESIGN_MAX_COST_REACHED: "§R§R Das Muster überschreitet die maximal zulässigen Kosten ($MAX|0$) für diese Klasse. §!§! "</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,11 +5795,11 @@
       </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC: "§HAutomatisches Muster§!\nGenerieren Sie automatisch ein vollständiges Muster, das am besten zum aktuellen Muster passt."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC: "§H§H Automatisches Muster §!§! \nGenerieren Sie automatisch ein vollständiges Muster, das am besten zum aktuellen Muster passt."</v>
       </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC: "§HAutomatisches Muster§!\nGenerieren Sie automatisch ein vollständiges Muster, das am besten zum aktuellen Muster passt."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_DESC: "§H§H Automatisches Muster §!§! \nGenerieren Sie automatisch ein vollständiges Muster, das am besten zum aktuellen Muster passt."</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,11 +5827,11 @@
       </c>
       <c r="C189" s="1" t="str">
         <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST: "§GKlicken§!, um das aktuelle Muster §Hanzupassen§!."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST: "§G§G Klicken §!§! , um das aktuelle Muster §H§H anzupassen §!§! ."</v>
       </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST: "§GKlicken§!, um das aktuelle Muster §Hanzupassen§!."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_ADJUST: "§G§G Klicken §!§! , um das aktuelle Muster §H§H anzupassen §!§! ."</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5843,11 +5843,11 @@
       </c>
       <c r="C190" s="1" t="str">
         <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE: "§GUmschalt+Klicken§!, um das aktuelle Muster zu §Hersetzen§!."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE: "§G§G Umschalt+Klicken §!§! , um das aktuelle Muster zu §H§H ersetzen §!§! ."</v>
       </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE: "§GUmschalt+Klicken§!, um das aktuelle Muster zu §Hersetzen§!."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_BUTTON_ACTION_TO_REPLACE: "§G§G Umschalt+Klicken §!§! , um das aktuelle Muster zu §H§H ersetzen §!§! ."</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="C191" s="1" t="str">
         <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC: "§HAlle Module verbessern§!\nErsetzen Sie alle veralteten Module mit dem besten verfügbaren Modul derselben Linie."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC: "§H§H Alle Module verbessern §!§! \nErsetzen Sie alle veralteten Module mit dem besten verfügbaren Modul derselben Linie."</v>
       </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC: "§HAlle Module verbessern§!\nErsetzen Sie alle veralteten Module mit dem besten verfügbaren Modul derselben Linie."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADE_BUTTON_DESC: "§H§H Alle Module verbessern §!§! \nErsetzen Sie alle veralteten Module mit dem besten verfügbaren Modul derselben Linie."</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5891,11 +5891,11 @@
       </c>
       <c r="C193" s="1" t="str">
         <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC: "§HAutomatisch verbessern§!\nWenn diese Option aktiviert ist, wird dieses Muster automatisch verbessert, wenn bessere Chassis und Module verfügbar werden."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC: "§H§H Automatisch verbessern §!§! \nWenn diese Option aktiviert ist, wird dieses Muster automatisch verbessert, wenn bessere Chassis und Module verfügbar werden."</v>
       </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
-        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC: "§HAutomatisch verbessern§!\nWenn diese Option aktiviert ist, wird dieses Muster automatisch verbessert, wenn bessere Chassis und Module verfügbar werden."</v>
+        <v> EQUIPMENT_DESIGNER_AUTO_UPGRADED_CHECKBOX_BUTTON_DESC: "§H§H Automatisch verbessern §!§! \nWenn diese Option aktiviert ist, wird dieses Muster automatisch verbessert, wenn bessere Chassis und Module verfügbar werden."</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,11 +5907,11 @@
       </c>
       <c r="C194" s="1" t="str">
         <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED: "§RRollenwechsel verboten§!"</v>
+        <v> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED: "§R§R Rollenwechsel verboten §!§! "</v>
       </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
-        <v> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED: "§RRollenwechsel verboten§!"</v>
+        <v> EQUIPMENT_DESIGNER_ROLE_CHANGE_DISALLOWED: "§R§R Rollenwechsel verboten §!§! "</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,11 +5939,11 @@
       </c>
       <c r="C196" s="1" t="str">
         <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED: "§RHöchstgeschwindigkeit liegt unter dem Minimum von $SPEED$§!"</v>
+        <v> EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED: "§R§R Höchstgeschwindigkeit liegt unter dem Minimum von $SPEED$ §!§! "</v>
       </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
-        <v> EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED: "§RHöchstgeschwindigkeit liegt unter dem Minimum von $SPEED$§!"</v>
+        <v> EQUIPMENT_DESIGNER_BELOW_MINIMUM_SPEED: "§R§R Höchstgeschwindigkeit liegt unter dem Minimum von $SPEED$ §!§! "</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,11 +5955,11 @@
       </c>
       <c r="C197" s="1" t="str">
         <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST: "§RDas Gewicht übersteigt die Schubkraft§!"</v>
+        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST: "§R§R Das Gewicht übersteigt die Schubkraft §!§! "</v>
       </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
-        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST: "§RDas Gewicht übersteigt die Schubkraft§!"</v>
+        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST: "§R§R Das Gewicht übersteigt die Schubkraft §!§! "</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,11 +5971,11 @@
       </c>
       <c r="C198" s="1" t="str">
         <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS: "§RDas Gewicht übersteigt die Schubkraft für folgende Missionen:§!"</v>
+        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS: "§R§R Das Gewicht übersteigt die Schubkraft für folgende Missionen: §!§! "</v>
       </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
-        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS: "§RDas Gewicht übersteigt die Schubkraft für folgende Missionen:§!"</v>
+        <v> EQUIPMENT_DESIGNER_WEIGHT_EXCEEDS_THRUST_FOR_MISSIONS: "§R§R Das Gewicht übersteigt die Schubkraft für folgende Missionen: §!§! "</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,11 +6320,11 @@
       </c>
       <c r="C220" s="1" t="str">
         <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v> tank_designer_amphibious_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HAmphibisch§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_amphibious_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Amphibisch §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
-        <v> tank_designer_amphibious_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HAmphibisch§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_amphibious_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Amphibisch §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,11 +6352,11 @@
       </c>
       <c r="C222" s="1" t="str">
         <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v> tank_designer_anti_air_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HFlak§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_anti_air_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Flak §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
-        <v> tank_designer_anti_air_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HFlak§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_anti_air_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Flak §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,11 +6384,11 @@
       </c>
       <c r="C224" s="1" t="str">
         <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v> tank_designer_artillery_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HArtillerie§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_artillery_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Artillerie §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
-        <v> tank_designer_artillery_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HArtillerie§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_artillery_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Artillerie §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,11 +6416,11 @@
       </c>
       <c r="C226" s="1" t="str">
         <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v> tank_designer_anti_tank_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HJagdpanzer§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_anti_tank_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Jagdpanzer §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
-        <v> tank_designer_anti_tank_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HJagdpanzer§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_anti_tank_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Jagdpanzer §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,11 +6448,11 @@
       </c>
       <c r="C228" s="1" t="str">
         <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v> tank_designer_rocket_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HRaketenartillerie§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_rocket_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Raketenartillerie §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
-        <v> tank_designer_rocket_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HRaketenartillerie§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_rocket_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Raketenartillerie §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,11 +6480,11 @@
       </c>
       <c r="C230" s="1" t="str">
         <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v> tank_designer_flame_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HFlamme§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_flame_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Flamme §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
-        <v> tank_designer_flame_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §HFlamme§! erlaubt, um zu ihr wechseln zu können."</v>
+        <v> tank_designer_flame_role_disallowed: "Fügen Sie ein Modul hinzu, dass die Rolle §H§H Flamme §!§!  erlaubt, um zu ihr wechseln zu können."</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,11 +7818,11 @@
       </c>
       <c r="C314" s="1" t="str">
         <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER: "§HJede Stufe verleiht:§!"</v>
+        <v> EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER: "§H§H Jede Stufe verleiht: §!§! "</v>
       </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
-        <v> EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER: "§HJede Stufe verleiht:§!"</v>
+        <v> EQUIPMENT_UPGRADE_EACH_LEVEL_STAT_HEADER: "§H§H Jede Stufe verleiht: §!§! "</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7898,11 +7898,11 @@
       </c>
       <c r="C319" s="1" t="str">
         <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY: "§HFür nächste Stufe nötig:§!"</v>
+        <v> EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY: "§H§H Für nächste Stufe nötig: §!§! "</v>
       </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY: "§HFür nächste Stufe nötig:§!"</v>
+        <v> EQUIPMENT_UPGRADE_NEXT_LEVEL_BLOCKED_BY: "§H§H Für nächste Stufe nötig: §!§! "</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,11 +7946,11 @@
       </c>
       <c r="C322" s="1" t="str">
         <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS: "§HNächstes Upgrade:§! "</v>
+        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS: "§H§H Nächstes Upgrade: §!§!  "</v>
       </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
-        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS: "§HNächstes Upgrade:§! "</v>
+        <v> EQUIPMENT_UPGRADE_NEXT_UPGRADE_GRANTS: "§H§H Nächstes Upgrade: §!§!  "</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7962,11 +7962,11 @@
       </c>
       <c r="C323" s="1" t="str">
         <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS: "§HNächstes Downgrade:§! "</v>
+        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS: "§H§H Nächstes Downgrade: §!§!  "</v>
       </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
-        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS: "§HNächstes Downgrade:§! "</v>
+        <v> EQUIPMENT_UPGRADE_PREV_UPGRADE_GRANTS: "§H§H Nächstes Downgrade: §!§!  "</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8010,11 +8010,11 @@
       </c>
       <c r="C326" s="1" t="str">
         <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v> EQUIPMENT_UPGRADE_RESOURCE_CHANGE: "§HÄnderung des Ressourcenverbrauchs:§!"</v>
+        <v> EQUIPMENT_UPGRADE_RESOURCE_CHANGE: "§H§H Änderung des Ressourcenverbrauchs: §!§! "</v>
       </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
-        <v> EQUIPMENT_UPGRADE_RESOURCE_CHANGE: "§HÄnderung des Ressourcenverbrauchs:§!"</v>
+        <v> EQUIPMENT_UPGRADE_RESOURCE_CHANGE: "§H§H Änderung des Ressourcenverbrauchs: §!§! "</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,11 +8026,11 @@
       </c>
       <c r="C327" s="1" t="str">
         <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT: "§REine indirekte Abhängigkeit ist nicht erfüllt§!"</v>
+        <v> EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT: "§R§R Eine indirekte Abhängigkeit ist nicht erfüllt §!§! "</v>
       </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
-        <v> EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT: "§REine indirekte Abhängigkeit ist nicht erfüllt§!"</v>
+        <v> EQUIPMENT_MODULE_MISSING_INDIRECT_REQUIREMENT: "§R§R Eine indirekte Abhängigkeit ist nicht erfüllt §!§! "</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8042,11 +8042,11 @@
       </c>
       <c r="C328" s="1" t="str">
         <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER: "§R$CATEGORY|H$ erfordert:§!"</v>
+        <v> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER: "§R§R $CATEGORY|H$ erfordert: §!§! "</v>
       </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
-        <v> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER: "§R$CATEGORY|H$ erfordert:§!"</v>
+        <v> EQUIPMENT_MODULE_MISSING_DIRECT_REQUIREMENT_HEADER: "§R§R $CATEGORY|H$ erfordert: §!§! "</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8074,11 +8074,11 @@
       </c>
       <c r="C330" s="1" t="str">
         <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED: "§RModule der Kategorie $CATEGORY|H$ sind für den Platz $SLOT|H$ nicht erlaubt§!"</v>
+        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED: "§R§R Module der Kategorie $CATEGORY|H$ sind für den Platz $SLOT|H$ nicht erlaubt §!§! "</v>
       </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED: "§RModule der Kategorie $CATEGORY|H$ sind für den Platz $SLOT|H$ nicht erlaubt§!"</v>
+        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED: "§R§R Module der Kategorie $CATEGORY|H$ sind für den Platz $SLOT|H$ nicht erlaubt §!§! "</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8090,11 +8090,11 @@
       </c>
       <c r="C331" s="1" t="str">
         <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE: "§R$MODULE|H$ Module der Kategorie $CATEGORY|H$ sind verboten§!\n\n"</v>
+        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE: "§R§R $MODULE|H$ Module der Kategorie $CATEGORY|H$ sind verboten §!§! \n\n"</v>
       </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE: "§R$MODULE|H$ Module der Kategorie $CATEGORY|H$ sind verboten§!\n\n"</v>
+        <v> EQUIPMENT_MODULE_CATEGORY_NOT_ALLOWED_BY_MODULE: "§R§R $MODULE|H$ Module der Kategorie $CATEGORY|H$ sind verboten §!§! \n\n"</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,11 +8106,11 @@
       </c>
       <c r="C332" s="1" t="str">
         <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY: "§RModule der Kategorie $CATEGORY|H$ werden von $BLOCKING|H$ blockiert§!"</v>
+        <v> EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY: "§R§R Module der Kategorie $CATEGORY|H$ werden von $BLOCKING|H$ blockiert §!§! "</v>
       </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY: "§RModule der Kategorie $CATEGORY|H$ werden von $BLOCKING|H$ blockiert§!"</v>
+        <v> EQUIPMENT_MODULE_CATEGORY_BLOCKED_BY: "§R§R Module der Kategorie $CATEGORY|H$ werden von $BLOCKING|H$ blockiert §!§! "</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8122,11 +8122,11 @@
       </c>
       <c r="C333" s="1" t="str">
         <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK: "§RDies würde die folgenden derzeit ausgerüsteten Module blockieren: $BLOCK|H$§!"</v>
+        <v> EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK: "§R§R Dies würde die folgenden derzeit ausgerüsteten Module blockieren: $BLOCK|H$ §!§! "</v>
       </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
-        <v> EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK: "§RDies würde die folgenden derzeit ausgerüsteten Module blockieren: $BLOCK|H$§!"</v>
+        <v> EQUIPMENT_MODULE_CATEGORY_WOULD_BLOCK: "§R§R Dies würde die folgenden derzeit ausgerüsteten Module blockieren: $BLOCK|H$ §!§! "</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,11 +8154,11 @@
       </c>
       <c r="C335" s="1" t="str">
         <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v> DESIGNER_COMPOSITION_HEADER: "§YZusammenstellung§!\n"</v>
+        <v> DESIGNER_COMPOSITION_HEADER: "§Y§Y Zusammenstellung §!§! \n"</v>
       </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
-        <v> DESIGNER_COMPOSITION_HEADER: "§YZusammenstellung§!\n"</v>
+        <v> DESIGNER_COMPOSITION_HEADER: "§Y§Y Zusammenstellung §!§! \n"</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8250,11 +8250,11 @@
       </c>
       <c r="C341" s="1" t="str">
         <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v> SUPPORT_COMPANY_FORBID_HEADER: "§YKann nicht kombiniert werden mit:§!"</v>
+        <v> SUPPORT_COMPANY_FORBID_HEADER: "§Y§Y Kann nicht kombiniert werden mit: §!§! "</v>
       </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
-        <v> SUPPORT_COMPANY_FORBID_HEADER: "§YKann nicht kombiniert werden mit:§!"</v>
+        <v> SUPPORT_COMPANY_FORBID_HEADER: "§Y§Y Kann nicht kombiniert werden mit: §!§! "</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,11 +8282,11 @@
       </c>
       <c r="C343" s="1" t="str">
         <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_SELECT_ROLE_DESC: "Die §HRolle§! bestimmt, welche §HBataillone§! und §HUnterstützungskompanien§! mit Ausrüstung dieses Musters ausgestattet werden."</v>
+        <v> EQUIPMENT_DESIGNER_SELECT_ROLE_DESC: "Die §H§H Rolle §!§!  bestimmt, welche §H§H Bataillone §!§!  und §H§H Unterstützungskompanien §!§!  mit Ausrüstung dieses Musters ausgestattet werden."</v>
       </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
-        <v> EQUIPMENT_DESIGNER_SELECT_ROLE_DESC: "Die §HRolle§! bestimmt, welche §HBataillone§! und §HUnterstützungskompanien§! mit Ausrüstung dieses Musters ausgestattet werden."</v>
+        <v> EQUIPMENT_DESIGNER_SELECT_ROLE_DESC: "Die §H§H Rolle §!§!  bestimmt, welche §H§H Bataillone §!§!  und §H§H Unterstützungskompanien §!§!  mit Ausrüstung dieses Musters ausgestattet werden."</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,11 +8298,11 @@
       </c>
       <c r="C344" s="1" t="str">
         <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE: "$MODULE|Y$ §Gerlaubt§!  diese Rolle."</v>
+        <v> EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE: "$MODULE|Y$ §G§G erlaubt §!§!   diese Rolle."</v>
       </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE: "$MODULE|Y$ §Gerlaubt§!  diese Rolle."</v>
+        <v> EQUIPMENT_DESIGNER_MODULE_ALLOWS_THIS_ROLE: "$MODULE|Y$ §G§G erlaubt §!§!   diese Rolle."</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8314,11 +8314,11 @@
       </c>
       <c r="C345" s="1" t="str">
         <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE: "$MODULE|Y$ §Rverbietet§! diese Rolle."</v>
+        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE: "$MODULE|Y$ §R§R verbietet §!§!  diese Rolle."</v>
       </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE: "$MODULE|Y$ §Rverbietet§! diese Rolle."</v>
+        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE: "$MODULE|Y$ §R§R verbietet §!§!  diese Rolle."</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8330,11 +8330,11 @@
       </c>
       <c r="C346" s="1" t="str">
         <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS: "$MODULE|Y$ §Rverbietet§! diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist."</v>
+        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS: "$MODULE|Y$ §R§R verbietet §!§!  diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist."</v>
       </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
-        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS: "$MODULE|Y$ §Rverbietet§! diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist."</v>
+        <v> EQUIPMENT_DESIGNER_MODULE_FORBIDS_THIS_ROLE_UNLESS: "$MODULE|Y$ §R§R verbietet §!§!  diese Rolle, sofern nicht $REQUIRED_MODULE|Y$ installiert ist."</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,11 +8362,11 @@
       </c>
       <c r="C348" s="1" t="str">
         <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v> EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE: "Die folgenden §HModule§! §Gerlauben§! diese Rolle:"</v>
+        <v> EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE: "Die folgenden §H§H Module §!§!  §G§G erlauben §!§!  diese Rolle:"</v>
       </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
-        <v> EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE: "Die folgenden §HModule§! §Gerlauben§! diese Rolle:"</v>
+        <v> EQUIPMENT_DESIGNER_HOW_TO_ALLOW_THIS_ROLE: "Die folgenden §H§H Module §!§!  §G§G erlauben §!§!  diese Rolle:"</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,11 +8394,11 @@
       </c>
       <c r="C350" s="1" t="str">
         <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v> DESIGNER_SELECT_NICHE: "§YAusrüstungstag§! auswählen"</v>
+        <v> DESIGNER_SELECT_NICHE: "§Y§Y Ausrüstungstag §!§!  auswählen"</v>
       </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
-        <v> DESIGNER_SELECT_NICHE: "§YAusrüstungstag§! auswählen"</v>
+        <v> DESIGNER_SELECT_NICHE: "§Y§Y Ausrüstungstag §!§!  auswählen"</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8442,11 +8442,11 @@
       </c>
       <c r="C353" s="1" t="str">
         <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v> DESIGNER_SELECT_NICHE_DISABLED_DELAYED: "Fügen Sie ein Panzerbataillon oder eine Unterstützungskompanie hinzu, um die Auswahl des §YAusrüstungstags§! zu ermöglichen."</v>
+        <v> DESIGNER_SELECT_NICHE_DISABLED_DELAYED: "Fügen Sie ein Panzerbataillon oder eine Unterstützungskompanie hinzu, um die Auswahl des §Y§Y Ausrüstungstags §!§!  zu ermöglichen."</v>
       </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
-        <v> DESIGNER_SELECT_NICHE_DISABLED_DELAYED: "Fügen Sie ein Panzerbataillon oder eine Unterstützungskompanie hinzu, um die Auswahl des §YAusrüstungstags§! zu ermöglichen."</v>
+        <v> DESIGNER_SELECT_NICHE_DISABLED_DELAYED: "Fügen Sie ein Panzerbataillon oder eine Unterstützungskompanie hinzu, um die Auswahl des §Y§Y Ausrüstungstags §!§!  zu ermöglichen."</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9764,540 +9764,324 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
